--- a/excercises/excercises/ex040.MF choke.xlsx
+++ b/excercises/excercises/ex040.MF choke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D683248-6E86-4212-9A85-D97E3A9BB368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F82EE-57FC-482C-9EB1-5CD8B734BCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2025,7 +2025,7 @@
       <definedName name="getUFVersion"/>
       <definedName name="MF_calibr_choke_fr"/>
       <definedName name="MF_p_choke_atma"/>
-      <definedName name="MF_q_liq_choke_sm3day"/>
+      <definedName name="MF_qliq_choke_sm3day"/>
       <definedName name="PVT_encode_string"/>
     </definedNames>
     <sheetDataSet>
@@ -2624,8 +2624,8 @@
   </sheetPr>
   <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="41" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C41" s="24">
-        <f t="array" ref="C41:G42">[1]!MF_q_liq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C37,PVTstr_)</f>
+        <f t="array" ref="C41:G42">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,C37,PVTstr_)</f>
         <v>25</v>
       </c>
       <c r="D41" s="24">
